--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/21.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/21.xlsx
@@ -479,13 +479,13 @@
         <v>-13.60416649164256</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.45496588652218</v>
+        <v>-10.33881097571038</v>
       </c>
       <c r="F2" t="n">
-        <v>2.649329504606912</v>
+        <v>2.636053909525401</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.50077867863193</v>
+        <v>-15.16502657225587</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.43687200510563</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.95248648681061</v>
+        <v>-10.83561149934252</v>
       </c>
       <c r="F3" t="n">
-        <v>2.529089795308499</v>
+        <v>2.530084810324471</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.10142416505076</v>
+        <v>-14.79423946347534</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.21023128311169</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.26359887923855</v>
+        <v>-11.17640414231265</v>
       </c>
       <c r="F4" t="n">
-        <v>2.67169115786058</v>
+        <v>2.689784720387845</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.59342972248895</v>
+        <v>-14.29705926306079</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.96055369099025</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.80869690805381</v>
+        <v>-11.75395798987256</v>
       </c>
       <c r="F5" t="n">
-        <v>2.728092798502736</v>
+        <v>2.742965654530936</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.99412955990894</v>
+        <v>-13.71751538546895</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.69045658743403</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.52697991885943</v>
+        <v>-12.47413938459022</v>
       </c>
       <c r="F6" t="n">
-        <v>2.758728787152374</v>
+        <v>2.774518104379496</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.51483344517619</v>
+        <v>-13.23003658146012</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.43138894725275</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.85663101211125</v>
+        <v>-12.84660230813449</v>
       </c>
       <c r="F7" t="n">
-        <v>2.97509218391474</v>
+        <v>2.981245566250351</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.85331865949229</v>
+        <v>-12.52953291791357</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.18768531647449</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.65335000924165</v>
+        <v>-13.65036496419373</v>
       </c>
       <c r="F8" t="n">
-        <v>3.101459090943079</v>
+        <v>3.11033567226977</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.552824124669</v>
+        <v>-12.20672909904797</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.976523268817</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.27760410103799</v>
+        <v>-14.28861472772788</v>
       </c>
       <c r="F9" t="n">
-        <v>3.268281213752353</v>
+        <v>3.276503179936957</v>
       </c>
       <c r="G9" t="n">
-        <v>-11.93616356852086</v>
+        <v>-11.58081228479073</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.80153168062304</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.25608353852007</v>
+        <v>-15.25787718400939</v>
       </c>
       <c r="F10" t="n">
-        <v>3.45636523637659</v>
+        <v>3.469090954738748</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.60373690706659</v>
+        <v>-11.21756634244704</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.66340467307962</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.12501967812543</v>
+        <v>-16.1495153767423</v>
       </c>
       <c r="F11" t="n">
-        <v>3.634813324109316</v>
+        <v>3.670345834021761</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.14762726066654</v>
+        <v>-10.79408271472857</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.56823017386782</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.93492262421745</v>
+        <v>-16.98725255867582</v>
       </c>
       <c r="F12" t="n">
-        <v>3.681683768282696</v>
+        <v>3.719049200592982</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.90373075102802</v>
+        <v>-10.53782707120746</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.50202276445872</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.5585221008717</v>
+        <v>-17.62359084599508</v>
       </c>
       <c r="F13" t="n">
-        <v>3.544188403838888</v>
+        <v>3.569089963843851</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.3459070038506</v>
+        <v>-10.00749715999766</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.4703730194718</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.52781074175889</v>
+        <v>-18.61898553874867</v>
       </c>
       <c r="F14" t="n">
-        <v>3.794906003257942</v>
+        <v>3.81703199506046</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.772581970108574</v>
+        <v>-9.411483165430926</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.44832240728525</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.36545627757252</v>
+        <v>-19.46736676289252</v>
       </c>
       <c r="F15" t="n">
-        <v>3.835282665221826</v>
+        <v>3.859608163901753</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.301874406039996</v>
+        <v>-8.953933365718283</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.43437134631951</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.34400117656881</v>
+        <v>-20.40341404686457</v>
       </c>
       <c r="F16" t="n">
-        <v>4.045387941225846</v>
+        <v>4.055573752836708</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.780041399374479</v>
+        <v>-8.434417696655752</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.39966246963775</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.2961258084305</v>
+        <v>-21.33566456301251</v>
       </c>
       <c r="F17" t="n">
-        <v>4.248423373695333</v>
+        <v>4.272329918684325</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.41908661002809</v>
+        <v>-8.072166769328033</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.34377015101754</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.06066392517593</v>
+        <v>-22.08841960720039</v>
       </c>
       <c r="F18" t="n">
-        <v>4.498355434943885</v>
+        <v>4.498460173366618</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.939999972140809</v>
+        <v>-7.601629405196398</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.24597890136982</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.78961716279756</v>
+        <v>-22.84235295864403</v>
       </c>
       <c r="F19" t="n">
-        <v>4.700291113974667</v>
+        <v>4.705711327351142</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.381443056004249</v>
+        <v>-7.02093340495448</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.11495130926035</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.48417692085397</v>
+        <v>-23.54715089752267</v>
       </c>
       <c r="F20" t="n">
-        <v>4.816393655575093</v>
+        <v>4.834330110468259</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.676435640280142</v>
+        <v>-6.308633576547532</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.94388181735666</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.16123227001099</v>
+        <v>-24.20564136125012</v>
       </c>
       <c r="F21" t="n">
-        <v>4.87643495640725</v>
+        <v>4.891700581520702</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.54367968946504</v>
+        <v>-6.187961821255342</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.7501685676522</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.88833949293193</v>
+        <v>-24.9393471048033</v>
       </c>
       <c r="F22" t="n">
-        <v>5.199945759626301</v>
+        <v>5.220788705750329</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.400908126976018</v>
+        <v>-6.073810032778333</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.53975486309177</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.40174105656738</v>
+        <v>-25.41086639164806</v>
       </c>
       <c r="F23" t="n">
-        <v>5.200495636345654</v>
+        <v>5.211807386000904</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.099104361868548</v>
+        <v>-5.781642202562375</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.32812640003282</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.84431326182909</v>
+        <v>-25.85555954997013</v>
       </c>
       <c r="F24" t="n">
-        <v>5.135662552673426</v>
+        <v>5.186617795333424</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.815145405534351</v>
+        <v>-5.511338518092098</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.12661842319273</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.17126734069551</v>
+        <v>-26.18502735098216</v>
       </c>
       <c r="F25" t="n">
-        <v>5.246973311433781</v>
+        <v>5.310916118512771</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.56771397412857</v>
+        <v>-5.325558740768005</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.939253832242622</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.47705116586686</v>
+        <v>-26.46636784674801</v>
       </c>
       <c r="F26" t="n">
-        <v>5.254357370236514</v>
+        <v>5.343961090885288</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.337171613388616</v>
+        <v>-5.122575677509884</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.777867159933765</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.25665533982925</v>
+        <v>-26.26441907541439</v>
       </c>
       <c r="F27" t="n">
-        <v>5.366794067041257</v>
+        <v>5.444169576835859</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.921281521318345</v>
+        <v>-4.757444443556985</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.634953861856012</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.40154785537863</v>
+        <v>-26.38197486263025</v>
       </c>
       <c r="F28" t="n">
-        <v>5.16155912769436</v>
+        <v>5.214190185118099</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.75224679932882</v>
+        <v>-4.622502078167315</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.52218194395582</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.54222464941298</v>
+        <v>-26.5401298809583</v>
       </c>
       <c r="F29" t="n">
-        <v>5.196646499310186</v>
+        <v>5.230215163796371</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.720039734338174</v>
+        <v>-4.59758742585951</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.427290466504417</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.56840925509643</v>
+        <v>-26.53247088379589</v>
       </c>
       <c r="F30" t="n">
-        <v>5.178160167697668</v>
+        <v>5.216834830292127</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.731770437684361</v>
+        <v>-4.625068169524293</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.361180511485571</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.21127741817983</v>
+        <v>-26.18628421205497</v>
       </c>
       <c r="F31" t="n">
-        <v>5.036998958458178</v>
+        <v>5.076590082251558</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.930550871730287</v>
+        <v>-4.817943974988601</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.311273714430396</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.87942681805059</v>
+        <v>-25.8449155077598</v>
       </c>
       <c r="F32" t="n">
-        <v>5.051871814486379</v>
+        <v>5.07334319114681</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.023270560455392</v>
+        <v>-4.912640601442806</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.288669337815874</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.69403980981175</v>
+        <v>-25.64358207465974</v>
       </c>
       <c r="F33" t="n">
-        <v>4.948128406768542</v>
+        <v>4.967478830368613</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.068661574407656</v>
+        <v>-4.946183081323309</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.281683981938967</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.20292134561292</v>
+        <v>-25.15132458011368</v>
       </c>
       <c r="F34" t="n">
-        <v>4.998690880343288</v>
+        <v>5.022859271389114</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.286569862905345</v>
+        <v>-5.156563295687005</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.300491978547798</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.88514497103855</v>
+        <v>-24.86529703993049</v>
       </c>
       <c r="F35" t="n">
-        <v>4.841478507819841</v>
+        <v>4.864154376341711</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.388585086648074</v>
+        <v>-5.258748719366677</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.334211293253244</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.37544852910731</v>
+        <v>-24.37648282103181</v>
       </c>
       <c r="F36" t="n">
-        <v>4.969311752766455</v>
+        <v>4.95069449812552</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.431593301483145</v>
+        <v>-5.328347401273293</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.390014769332</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.80615592464054</v>
+        <v>-23.79020949977932</v>
       </c>
       <c r="F37" t="n">
-        <v>4.941948839827247</v>
+        <v>4.925007399950053</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.531278095320046</v>
+        <v>-5.443598943189007</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.4607772522331</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.21526102048491</v>
+        <v>-23.21463258994851</v>
       </c>
       <c r="F38" t="n">
-        <v>4.766747643199269</v>
+        <v>4.755200232092866</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.552893487311736</v>
+        <v>-5.458602722245625</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.546886410434839</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.10160673951589</v>
+        <v>-23.08745396014399</v>
       </c>
       <c r="F39" t="n">
-        <v>4.910344020767321</v>
+        <v>4.8875895984284</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.545365413177744</v>
+        <v>-5.433596423817928</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.647406926569758</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.38986988013114</v>
+        <v>-22.39120529502099</v>
       </c>
       <c r="F40" t="n">
-        <v>5.074338206162781</v>
+        <v>5.051662337640911</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.597983378298641</v>
+        <v>-5.487458157708789</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.756233187018331</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.88814665063051</v>
+        <v>-21.90096401511256</v>
       </c>
       <c r="F41" t="n">
-        <v>5.052159845148897</v>
+        <v>5.041607449058466</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.659229170992235</v>
+        <v>-5.544082367499255</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.878621330749539</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.06883033879529</v>
+        <v>-21.08789273173285</v>
       </c>
       <c r="F42" t="n">
-        <v>5.166534202774216</v>
+        <v>5.135557814250692</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.877150551792766</v>
+        <v>-5.755614704513023</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.00366819165563</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57153230765517</v>
+        <v>-20.56892693938967</v>
       </c>
       <c r="F43" t="n">
-        <v>5.174651430536086</v>
+        <v>5.15420125349731</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.994195739197797</v>
+        <v>-5.895440498862657</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.13892606616043</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.93343965175513</v>
+        <v>-19.96785931592602</v>
       </c>
       <c r="F44" t="n">
-        <v>5.041555079847098</v>
+        <v>5.00644152362559</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.998961337432185</v>
+        <v>-5.884783364349492</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.27010645981689</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.40193143328957</v>
+        <v>-19.41749818136838</v>
       </c>
       <c r="F45" t="n">
-        <v>4.97632922708962</v>
+        <v>4.960854125130699</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.972671993325999</v>
+        <v>-5.839824396391005</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.40458001880034</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.7462296300674</v>
+        <v>-18.76233316256273</v>
       </c>
       <c r="F46" t="n">
-        <v>5.180019274701194</v>
+        <v>5.142680026996591</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.148946758786999</v>
+        <v>-5.979794206071898</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.526539601623</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.38027358103548</v>
+        <v>-18.40654983283882</v>
       </c>
       <c r="F47" t="n">
-        <v>5.190047978677956</v>
+        <v>5.142549103968173</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.358816373339867</v>
+        <v>-6.170103920179228</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.64396782914161</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.76942600734906</v>
+        <v>-17.81157013019658</v>
       </c>
       <c r="F48" t="n">
-        <v>5.08753524742724</v>
+        <v>5.031369268236236</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.496102260938208</v>
+        <v>-6.290749490865734</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.74222107140668</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.26046273437696</v>
+        <v>-17.25695399721538</v>
       </c>
       <c r="F49" t="n">
-        <v>5.104110102824866</v>
+        <v>5.06234565675976</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.784473323330066</v>
+        <v>-6.558107407196622</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.82994806864898</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.66509026264947</v>
+        <v>-16.68661400852127</v>
       </c>
       <c r="F50" t="n">
-        <v>4.971380336615447</v>
+        <v>4.916314110863147</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.960800458002432</v>
+        <v>-6.712308550066472</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.89643543229499</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.90927161959663</v>
+        <v>-15.9559849561359</v>
       </c>
       <c r="F51" t="n">
-        <v>4.909794144047968</v>
+        <v>4.860593269968761</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.005471395298402</v>
+        <v>-6.734329803446255</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.95050567601675</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.43256778082654</v>
+        <v>-15.47992264020506</v>
       </c>
       <c r="F52" t="n">
-        <v>4.81628891715236</v>
+        <v>4.765804997394665</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.2401378314335</v>
+        <v>-6.979679558700202</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.99009752700293</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.84727638228717</v>
+        <v>-14.88585939876174</v>
       </c>
       <c r="F53" t="n">
-        <v>4.773791302128117</v>
+        <v>4.727680211519558</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.484767510031151</v>
+        <v>-7.210470673194148</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.01798897399661</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.15915803722889</v>
+        <v>-14.23197742563457</v>
       </c>
       <c r="F54" t="n">
-        <v>4.613986653642009</v>
+        <v>4.558815689466975</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.733992586926249</v>
+        <v>-7.418978688251478</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.03980448208101</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.6159976692342</v>
+        <v>-13.67425841687988</v>
       </c>
       <c r="F55" t="n">
-        <v>4.680993059585963</v>
+        <v>4.623360742476684</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.039226535378251</v>
+        <v>-7.721096668627148</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.05127935686501</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.31250499706015</v>
+        <v>-13.39228949057763</v>
       </c>
       <c r="F56" t="n">
-        <v>4.58479081830496</v>
+        <v>4.553709691358702</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.072507169201918</v>
+        <v>-7.754887902261644</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.06410160524816</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.99894434400081</v>
+        <v>-13.07071634817915</v>
       </c>
       <c r="F57" t="n">
-        <v>4.488326730967122</v>
+        <v>4.423964970197197</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.390663220558704</v>
+        <v>-8.054505252794545</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.0692150688653</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.55253609400648</v>
+        <v>-12.63812047768284</v>
       </c>
       <c r="F58" t="n">
-        <v>4.401865163000363</v>
+        <v>4.353528380908711</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.81592740146365</v>
+        <v>-8.493765105437296</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.07929024435762</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.23139499760178</v>
+        <v>-12.30664955433602</v>
       </c>
       <c r="F59" t="n">
-        <v>4.378875079210292</v>
+        <v>4.328129313395762</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.152713799764211</v>
+        <v>-8.818022169918326</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.08220404566639</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.89675573696726</v>
+        <v>-11.98514187345175</v>
       </c>
       <c r="F60" t="n">
-        <v>4.278300008780152</v>
+        <v>4.220693876276558</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.255881146157012</v>
+        <v>-8.938026217765588</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.09022393291343</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.7375926113204</v>
+        <v>-11.80639266275367</v>
       </c>
       <c r="F61" t="n">
-        <v>4.156515407746417</v>
+        <v>4.104146196379513</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.636042343772212</v>
+        <v>-9.307883773044349</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.0905501210938</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.64616906057662</v>
+        <v>-11.69938927162824</v>
       </c>
       <c r="F62" t="n">
-        <v>4.051960277252392</v>
+        <v>3.998360389418366</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.839064683938858</v>
+        <v>-9.51360312759639</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.0951545895959</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.40280933535462</v>
+        <v>-11.44753264186196</v>
       </c>
       <c r="F63" t="n">
-        <v>4.12703154174685</v>
+        <v>4.074505222745844</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.06409518518245</v>
+        <v>-9.739825028398574</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.09254296706575</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.34131478890703</v>
+        <v>-11.35757542903646</v>
       </c>
       <c r="F64" t="n">
-        <v>4.024754471947285</v>
+        <v>3.975605967079446</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.24750525569219</v>
+        <v>-9.881104068363641</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.0929926192992</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.40295335068588</v>
+        <v>-11.41893905245563</v>
       </c>
       <c r="F65" t="n">
-        <v>4.033343022611458</v>
+        <v>3.987415224242683</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.132292990685</v>
+        <v>-9.802537159010443</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.0880978924017</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.25431643652376</v>
+        <v>-11.24965557671211</v>
       </c>
       <c r="F66" t="n">
-        <v>4.048111140216925</v>
+        <v>3.995820482667071</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.31961765974441</v>
+        <v>-10.0035563768423</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.08219662131921</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.51612321644976</v>
+        <v>-11.50075285291357</v>
       </c>
       <c r="F67" t="n">
-        <v>3.754450787477009</v>
+        <v>3.694723701913055</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.41799322329714</v>
+        <v>-10.08145557875057</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.07302159520629</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.51875476932095</v>
+        <v>-11.49996731474307</v>
       </c>
       <c r="F68" t="n">
-        <v>3.870212929203551</v>
+        <v>3.790768835559957</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.20570153271855</v>
+        <v>-9.881418283631842</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.05730313403159</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.45732568438757</v>
+        <v>-11.40377816576491</v>
       </c>
       <c r="F69" t="n">
-        <v>3.832376173990963</v>
+        <v>3.768590474546073</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.24969167026675</v>
+        <v>-9.901266214739898</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-11.03997363550502</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.65786048701429</v>
+        <v>-11.62296949994109</v>
       </c>
       <c r="F70" t="n">
-        <v>3.610959148331691</v>
+        <v>3.566550057092556</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.310138832487</v>
+        <v>-9.958898531849178</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-11.01112795132672</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.61934293205393</v>
+        <v>-11.56761524352627</v>
       </c>
       <c r="F71" t="n">
-        <v>3.519417766862343</v>
+        <v>3.477627136191553</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.31173609343369</v>
+        <v>-9.965156652607522</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.98099947634141</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.77214319851971</v>
+        <v>-11.72844109163403</v>
       </c>
       <c r="F72" t="n">
-        <v>3.551362985796154</v>
+        <v>3.490091008496876</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.45943036179121</v>
+        <v>-10.09452169698662</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.93754799831002</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.14874328976196</v>
+        <v>-12.10170264565164</v>
       </c>
       <c r="F73" t="n">
-        <v>3.646648765878237</v>
+        <v>3.580820667190038</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.25981202036341</v>
+        <v>-9.908440796697164</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.89260662465159</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.44703831770785</v>
+        <v>-12.39034864640318</v>
       </c>
       <c r="F74" t="n">
-        <v>3.640573937359676</v>
+        <v>3.588099987570037</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.17667589731845</v>
+        <v>-9.830515410183212</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.83491267513288</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.76842816786654</v>
+        <v>-12.73433581126669</v>
       </c>
       <c r="F75" t="n">
-        <v>3.586293249777879</v>
+        <v>3.52242899651594</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.09720561906917</v>
+        <v>-9.755915468591056</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.77657800165707</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.99758274450527</v>
+        <v>-12.93568233666959</v>
       </c>
       <c r="F76" t="n">
-        <v>3.586005219115362</v>
+        <v>3.503052388310185</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.03868302536666</v>
+        <v>-9.695586137096383</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.70555480469707</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.44520857866389</v>
+        <v>-13.38796903063986</v>
       </c>
       <c r="F77" t="n">
-        <v>3.605696042589317</v>
+        <v>3.543507604091119</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.819570245007528</v>
+        <v>-9.490613043806318</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.62937210847019</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.19644491572213</v>
+        <v>-14.13686184548943</v>
       </c>
       <c r="F78" t="n">
-        <v>3.577809437536441</v>
+        <v>3.513028723075581</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.523396170122002</v>
+        <v>-9.198301198259101</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.53441398928032</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.79440966341228</v>
+        <v>-14.72869939544966</v>
       </c>
       <c r="F79" t="n">
-        <v>3.699410746330392</v>
+        <v>3.617217269090037</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.530963521164519</v>
+        <v>-9.187657156048777</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.42232922522163</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.17318307692626</v>
+        <v>-15.11091608461101</v>
       </c>
       <c r="F80" t="n">
-        <v>3.737614086022549</v>
+        <v>3.660893191370035</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.152792353581262</v>
+        <v>-8.818153092946742</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.28316444249045</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.73843015981494</v>
+        <v>-15.67418622977059</v>
       </c>
       <c r="F81" t="n">
-        <v>3.724993106083125</v>
+        <v>3.634891877926367</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.956918410766198</v>
+        <v>-8.627529163571211</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.11386005284656</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.58369541588246</v>
+        <v>-16.5389328324666</v>
       </c>
       <c r="F82" t="n">
-        <v>3.610932963726008</v>
+        <v>3.525021272478602</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.72051069835315</v>
+        <v>-8.420094717346904</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.914138140710524</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.53962990787109</v>
+        <v>-17.48613475845979</v>
       </c>
       <c r="F83" t="n">
-        <v>3.709020496616219</v>
+        <v>3.625570158303058</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.534272690429596</v>
+        <v>-8.21974320695997</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.679085220851837</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.46486294969587</v>
+        <v>-18.4144183068467</v>
       </c>
       <c r="F84" t="n">
-        <v>3.633975416727446</v>
+        <v>3.531174654814213</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.235571801095617</v>
+        <v>-7.94023563359196</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.418678712997748</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.48324772623953</v>
+        <v>-19.43872080427482</v>
       </c>
       <c r="F85" t="n">
-        <v>3.791580558336144</v>
+        <v>3.698284808286004</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.054937298788321</v>
+        <v>-7.789621781700743</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.127873429212695</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.66317842754725</v>
+        <v>-20.6210866739111</v>
       </c>
       <c r="F86" t="n">
-        <v>3.770475766155282</v>
+        <v>3.668093957932984</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.90656223068304</v>
+        <v>-7.651746740474525</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.823174507813038</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.86124196829076</v>
+        <v>-21.8035834665758</v>
       </c>
       <c r="F87" t="n">
-        <v>3.736383409555427</v>
+        <v>3.631933017484136</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.752727672292758</v>
+        <v>-7.48915343148313</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.501530582645362</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.27354795273628</v>
+        <v>-23.24351421001736</v>
       </c>
       <c r="F88" t="n">
-        <v>3.959921388275058</v>
+        <v>3.874821419803839</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.681924498524705</v>
+        <v>-7.428104023332161</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.178797731833059</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.76184166287517</v>
+        <v>-24.73620693391107</v>
       </c>
       <c r="F89" t="n">
-        <v>3.811507043261251</v>
+        <v>3.704726221284134</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.468245023844893</v>
+        <v>-7.255495102666845</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.850578313851949</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.38456713859291</v>
+        <v>-26.35639250287752</v>
       </c>
       <c r="F90" t="n">
-        <v>3.954213144236066</v>
+        <v>3.876811449835781</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.629751671700426</v>
+        <v>-7.406567185157522</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.527487791411186</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.09283772107849</v>
+        <v>-28.09508959716726</v>
       </c>
       <c r="F91" t="n">
-        <v>4.086209741486347</v>
+        <v>3.992364114716855</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.360848863634215</v>
+        <v>-7.154055940249151</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.202783757063647</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.04148298373815</v>
+        <v>-30.03285515616545</v>
       </c>
       <c r="F92" t="n">
-        <v>3.982937656670813</v>
+        <v>3.893176828387939</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.537477121271941</v>
+        <v>-7.343684854608711</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.880911985752758</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.87238916694218</v>
+        <v>-31.84992277526577</v>
       </c>
       <c r="F93" t="n">
-        <v>3.908625745741175</v>
+        <v>3.819859932474273</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.395530373861947</v>
+        <v>-7.163482398295193</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.555056601336265</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.85089797238382</v>
+        <v>-33.81569277004242</v>
       </c>
       <c r="F94" t="n">
-        <v>4.164161312605985</v>
+        <v>4.046932832961169</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.293475873210692</v>
+        <v>-7.114569554878505</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.226259197920991</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.95243514762916</v>
+        <v>-35.93468198497578</v>
       </c>
       <c r="F95" t="n">
-        <v>3.897104519240456</v>
+        <v>3.822687869888085</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.096070130963146</v>
+        <v>-6.928331546954952</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.893747166372489</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.20033117634216</v>
+        <v>-38.20141783747803</v>
       </c>
       <c r="F96" t="n">
-        <v>3.758221370695426</v>
+        <v>3.664532851560034</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.170997380126344</v>
+        <v>-6.999435843688366</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.558773869624091</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.16891601622978</v>
+        <v>-40.19314986878981</v>
       </c>
       <c r="F97" t="n">
-        <v>3.566733349332341</v>
+        <v>3.481004950324718</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.825700984978662</v>
+        <v>-6.679041008545646</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.230940808537738</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.72034399402536</v>
+        <v>-42.7337243275296</v>
       </c>
       <c r="F98" t="n">
-        <v>3.540444005226155</v>
+        <v>3.439502350316447</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.872715444483299</v>
+        <v>-6.722245607923342</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.91543588163986</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.85247788101181</v>
+        <v>-44.88659642221735</v>
       </c>
       <c r="F99" t="n">
-        <v>3.47108098477069</v>
+        <v>3.413867621352347</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.642906252702482</v>
+        <v>-6.525730142269033</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.631373035426393</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.13289518998366</v>
+        <v>-47.18385043264365</v>
       </c>
       <c r="F100" t="n">
-        <v>3.382603202166305</v>
+        <v>3.32772026865379</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.503774350403459</v>
+        <v>-6.435419437266807</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.387715305738575</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.46756700193162</v>
+        <v>-49.4969592218113</v>
       </c>
       <c r="F101" t="n">
-        <v>3.081820636680491</v>
+        <v>3.027409026070277</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.561995821140615</v>
+        <v>-6.536125430725364</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.203278864299099</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.86605069793015</v>
+        <v>-51.90734382109295</v>
       </c>
       <c r="F102" t="n">
-        <v>2.695309672187054</v>
+        <v>2.66585199079317</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.555109269845866</v>
+        <v>-6.482473173679971</v>
       </c>
     </row>
   </sheetData>
